--- a/PreempData.xlsx
+++ b/PreempData.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23515"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,17 +47,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -61,7 +66,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -69,9 +74,25 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -92,15 +113,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -111,6 +141,289 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>940.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>436.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1980.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2.661132536609588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.14874854718563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.80069222725036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.42135724543473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.51400369175976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.60897842756548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.60897842756548</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.08826249677675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.496328812903494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.8278537031645</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.14157382599259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.94581951712206</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.32771193907892</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.60422483423212</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.69351846719132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.60897842756548</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.78187385220651</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.91704443215521</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.10214403638182</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.827104575358968</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.329692228834232</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21812614779349</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.615744135264195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2019703592"/>
+        <c:axId val="2019697784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2019703592"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2019697784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2019697784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2019703592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,15 +713,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -425,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>100</v>
       </c>
@@ -436,15 +749,15 @@
         <v>1.6559999999999999</v>
       </c>
       <c r="D2">
-        <f>C2/B2</f>
+        <f t="shared" ref="D2:D24" si="0">C2/B2</f>
         <v>1.3584905660377358</v>
       </c>
       <c r="E2">
-        <f>20*LOG(D2)</f>
+        <f t="shared" ref="E2:E24" si="1">20*LOG(D2)</f>
         <v>2.6611325366095877</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>200</v>
       </c>
@@ -455,15 +768,15 @@
         <v>6.2149999999999999</v>
       </c>
       <c r="D3">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>5.0984413453650532</v>
       </c>
       <c r="E3">
-        <f>20*LOG(D3)</f>
+        <f t="shared" si="1"/>
         <v>14.148748547185633</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>500</v>
       </c>
@@ -474,15 +787,15 @@
         <v>4.875</v>
       </c>
       <c r="D4">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
       <c r="E4">
-        <f>20*LOG(D4)</f>
+        <f t="shared" si="1"/>
         <v>25.800692227250362</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -493,15 +806,15 @@
         <v>5.875</v>
       </c>
       <c r="D5">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
       <c r="E5">
-        <f>20*LOG(D5)</f>
+        <f t="shared" si="1"/>
         <v>27.421357245434727</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>940</v>
       </c>
@@ -512,15 +825,15 @@
         <v>5.9379999999999997</v>
       </c>
       <c r="D6">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>23.751999999999999</v>
       </c>
       <c r="E6">
-        <f>20*LOG(D6)</f>
+        <f t="shared" si="1"/>
         <v>27.514003691759761</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>436</v>
       </c>
@@ -531,15 +844,15 @@
         <v>4.25</v>
       </c>
       <c r="D7">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E7">
-        <f>20*LOG(D7)</f>
+        <f t="shared" si="1"/>
         <v>24.608978427565479</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>1980</v>
       </c>
@@ -550,15 +863,15 @@
         <v>4.25</v>
       </c>
       <c r="D8">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="E8">
-        <f>20*LOG(D8)</f>
+        <f t="shared" si="1"/>
         <v>24.608978427565479</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>5000</v>
       </c>
@@ -569,15 +882,15 @@
         <v>4.3120000000000003</v>
       </c>
       <c r="D9">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>3.5843724023275145</v>
       </c>
       <c r="E9">
-        <f>20*LOG(D9)</f>
+        <f t="shared" si="1"/>
         <v>11.08826249677675</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>10000</v>
       </c>
@@ -588,18 +901,290 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>0.84175084175084181</v>
       </c>
       <c r="E10">
-        <f>20*LOG(D10)</f>
+        <f t="shared" si="1"/>
         <v>-1.4963288129034944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>300</v>
+      </c>
+      <c r="B11">
+        <v>0.125</v>
+      </c>
+      <c r="C11">
+        <v>1.375</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>20.827853703164504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
+        <v>400</v>
+      </c>
+      <c r="B12">
+        <v>0.128</v>
+      </c>
+      <c r="C12">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>16.109375</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>24.141573825992587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
+        <v>600</v>
+      </c>
+      <c r="B13">
+        <v>0.125</v>
+      </c>
+      <c r="C13">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>22.248000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>26.945819517122061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3">
+        <v>700</v>
+      </c>
+      <c r="B14">
+        <v>0.125</v>
+      </c>
+      <c r="C14">
+        <v>2.9060000000000001</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>23.248000000000001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>27.327711939078924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3">
+        <v>800</v>
+      </c>
+      <c r="B15">
+        <v>0.125</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>27.60422483423212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
+        <v>900</v>
+      </c>
+      <c r="B16">
+        <v>0.125</v>
+      </c>
+      <c r="C16">
+        <v>3.0310000000000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>24.248000000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>27.693518467191318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B17">
+        <v>0.125</v>
+      </c>
+      <c r="C17">
+        <v>2.125</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>24.608978427565479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B18">
+        <v>0.125</v>
+      </c>
+      <c r="C18">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>9.7520000000000007</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>19.781873852206509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3">
+        <v>4000</v>
+      </c>
+      <c r="B19">
+        <v>0.125</v>
+      </c>
+      <c r="C19">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>6.2496</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>15.917044432155208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="B20">
+        <v>0.375</v>
+      </c>
+      <c r="C20">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2.5415999999999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>8.1021440363818193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
+        <v>7000</v>
+      </c>
+      <c r="B21">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="C21">
+        <v>2.125</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.7432321575061525</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>4.8271045753589679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="B22">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="C22">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.3076292042657915</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>2.3296922288342317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3">
+        <v>9000</v>
+      </c>
+      <c r="B23">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="C23">
+        <v>1.25</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.0254306808859721</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.21812614779348982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="C24">
+        <v>3.6880000000000002</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>3.0254306808859721</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>9.6157441352641957</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -609,10 +1194,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -622,9 +1212,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/PreempData.xlsx
+++ b/PreempData.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23515"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -47,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,184 +148,365 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Pre-emphasis filter</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2585457802494544E-2"/>
+          <c:y val="0.13675130496328408"/>
+          <c:w val="0.7846992493049495"/>
+          <c:h val="0.76118257689698898"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$B$3:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>940.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>436.0</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1980.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5000.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10000.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>600.0</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>700.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>800.0</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>900.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2000.0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6000.0</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7000.0</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9000.0</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>150.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$24</c:f>
+              <c:f>Sheet1!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.6611325366095877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>100, 2.661132537</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.247191011235955E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>10000, -1.49633</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>2.661132536609588</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.14874854718563</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.80069222725036</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.42135724543473</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.51400369175976</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.60897842756548</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.60897842756548</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2.6611325366095877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6157441352641957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.148748547185633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.827853703164504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.141573825992587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.608978427565479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.800692227250362</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.945819517122061</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.327711939078924</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.60422483423212</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.693518467191318</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.514003691759761</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.421357245434727</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.608978427565479</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.608978427565479</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.781873852206509</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.917044432155208</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>11.08826249677675</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.496328812903494</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.8278537031645</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.14157382599259</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26.94581951712206</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>27.32771193907892</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>27.60422483423212</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>27.69351846719132</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24.60897842756548</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.78187385220651</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.91704443215521</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.10214403638182</c:v>
+                  <c:v>8.1021440363818193</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.827104575358968</c:v>
+                  <c:v>4.8271045753589679</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.329692228834232</c:v>
+                  <c:v>2.3296922288342317</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.21812614779349</c:v>
+                  <c:v>0.21812614779348982</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.615744135264195</c:v>
+                  <c:v>-1.4963288129034944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -337,55 +516,115 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2019703592"/>
-        <c:axId val="2019697784"/>
+        <c:axId val="41462016"/>
+        <c:axId val="41464192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2019703592"/>
+        <c:axId val="41462016"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="100.0"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46309247846565871"/>
+              <c:y val="0.93164174702881242"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2019697784"/>
+        <c:crossAx val="41464192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2019697784"/>
+        <c:axId val="41464192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>20log│H(j</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ω)│ (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>dB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2019703592"/>
+        <c:crossAx val="41462016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -395,16 +634,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -713,472 +952,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="3" spans="2:6">
+      <c r="B3">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>1.2190000000000001</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>1.6559999999999999</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D24" si="0">C2/B2</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">D3/C3</f>
         <v>1.3584905660377358</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E24" si="1">20*LOG(D2)</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F15" si="1">20*LOG(E3)</f>
         <v>2.6611325366095877</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="4" spans="2:6">
+      <c r="B4" s="3">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="D4">
+        <v>3.6880000000000002</v>
+      </c>
+      <c r="E4">
+        <f>D4/C4</f>
+        <v>3.0254306808859721</v>
+      </c>
+      <c r="F4">
+        <f>20*LOG(E4)</f>
+        <v>9.6157441352641957</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
         <v>200</v>
       </c>
-      <c r="B3">
+      <c r="C5">
         <v>1.2190000000000001</v>
       </c>
-      <c r="C3">
+      <c r="D5">
         <v>6.2149999999999999</v>
       </c>
-      <c r="D3">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>5.0984413453650532</v>
       </c>
-      <c r="E3">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>14.148748547185633</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="6" spans="2:6">
+      <c r="B6" s="3">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>0.125</v>
+      </c>
+      <c r="D6">
+        <v>1.375</v>
+      </c>
+      <c r="E6">
+        <f>D6/C6</f>
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <f>20*LOG(E6)</f>
+        <v>20.827853703164504</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3">
+        <v>400</v>
+      </c>
+      <c r="C7">
+        <v>0.128</v>
+      </c>
+      <c r="D7">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="E7">
+        <f>D7/C7</f>
+        <v>16.109375</v>
+      </c>
+      <c r="F7">
+        <f>20*LOG(E7)</f>
+        <v>24.141573825992587</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1">
+        <v>436</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <v>4.25</v>
+      </c>
+      <c r="E8">
+        <f>D8/C8</f>
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <f>20*LOG(E8)</f>
+        <v>24.608978427565479</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9">
         <v>500</v>
       </c>
-      <c r="B4">
+      <c r="C9">
         <v>0.25</v>
       </c>
-      <c r="C4">
+      <c r="D9">
         <v>4.875</v>
       </c>
-      <c r="D4">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-      <c r="E4">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>25.800692227250362</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="10" spans="2:6">
+      <c r="B10" s="3">
+        <v>600</v>
+      </c>
+      <c r="C10">
+        <v>0.125</v>
+      </c>
+      <c r="D10">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="E10">
+        <f>D10/C10</f>
+        <v>22.248000000000001</v>
+      </c>
+      <c r="F10">
+        <f>20*LOG(E10)</f>
+        <v>26.945819517122061</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="3">
+        <v>700</v>
+      </c>
+      <c r="C11">
+        <v>0.125</v>
+      </c>
+      <c r="D11">
+        <v>2.9060000000000001</v>
+      </c>
+      <c r="E11">
+        <f>D11/C11</f>
+        <v>23.248000000000001</v>
+      </c>
+      <c r="F11">
+        <f>20*LOG(E11)</f>
+        <v>27.327711939078924</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="3">
+        <v>800</v>
+      </c>
+      <c r="C12">
+        <v>0.125</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f>D12/C12</f>
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <f>20*LOG(E12)</f>
+        <v>27.60422483423212</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3">
+        <v>900</v>
+      </c>
+      <c r="C13">
+        <v>0.125</v>
+      </c>
+      <c r="D13">
+        <v>3.0310000000000001</v>
+      </c>
+      <c r="E13">
+        <f>D13/C13</f>
+        <v>24.248000000000001</v>
+      </c>
+      <c r="F13">
+        <f>20*LOG(E13)</f>
+        <v>27.693518467191318</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1">
+        <v>940</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
+      </c>
+      <c r="D14">
+        <v>5.9379999999999997</v>
+      </c>
+      <c r="E14">
+        <f>D14/C14</f>
+        <v>23.751999999999999</v>
+      </c>
+      <c r="F14">
+        <f>20*LOG(E14)</f>
+        <v>27.514003691759761</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15">
         <v>1000</v>
       </c>
-      <c r="B5">
+      <c r="C15">
         <v>0.25</v>
       </c>
-      <c r="C5">
+      <c r="D15">
         <v>5.875</v>
       </c>
-      <c r="D5">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
-      <c r="E5">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>27.421357245434727</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>940</v>
-      </c>
-      <c r="B6">
+    <row r="16" spans="2:6">
+      <c r="B16" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C16">
         <v>0.25</v>
       </c>
-      <c r="C6">
-        <v>5.9379999999999997</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>23.751999999999999</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>27.514003691759761</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>436</v>
-      </c>
-      <c r="B7">
-        <v>0.25</v>
-      </c>
-      <c r="C7">
+      <c r="D16">
         <v>4.25</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
+      <c r="E16">
+        <f t="shared" ref="E16:E25" si="2">D16/C16</f>
         <v>17</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
+      <c r="F16">
+        <f t="shared" ref="F16:F25" si="3">20*LOG(E16)</f>
         <v>24.608978427565479</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>1980</v>
-      </c>
-      <c r="B8">
-        <v>0.25</v>
-      </c>
-      <c r="C8">
-        <v>4.25</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C17">
+        <v>0.125</v>
+      </c>
+      <c r="D17">
+        <v>2.125</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
+      <c r="F17">
+        <f t="shared" si="3"/>
         <v>24.608978427565479</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
+    <row r="18" spans="2:6">
+      <c r="B18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C18">
+        <v>0.125</v>
+      </c>
+      <c r="D18">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>9.7520000000000007</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>19.781873852206509</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C19">
+        <v>0.125</v>
+      </c>
+      <c r="D19">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>6.2496</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>15.917044432155208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
         <v>5000</v>
       </c>
-      <c r="B9">
+      <c r="C20">
         <v>1.2030000000000001</v>
       </c>
-      <c r="C9">
+      <c r="D20">
         <v>4.3120000000000003</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
+      <c r="E20">
+        <f t="shared" si="2"/>
         <v>3.5843724023275145</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
+      <c r="F20">
+        <f t="shared" si="3"/>
         <v>11.08826249677675</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
+    <row r="21" spans="2:6">
+      <c r="B21" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C21">
+        <v>0.375</v>
+      </c>
+      <c r="D21">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>2.5415999999999999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>8.1021440363818193</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="C22">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="D22">
+        <v>2.125</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>1.7432321575061525</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>4.8271045753589679</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="C23">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="D23">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>1.3076292042657915</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>2.3296922288342317</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="C24">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="D24">
+        <v>1.25</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>1.0254306808859721</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0.21812614779348982</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1">
         <v>10000</v>
       </c>
-      <c r="B10">
+      <c r="C25">
         <v>1.1879999999999999</v>
       </c>
-      <c r="C10">
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
+      <c r="E25">
+        <f t="shared" si="2"/>
         <v>0.84175084175084181</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
+      <c r="F25">
+        <f t="shared" si="3"/>
         <v>-1.4963288129034944</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
-        <v>300</v>
-      </c>
-      <c r="B11">
-        <v>0.125</v>
-      </c>
-      <c r="C11">
-        <v>1.375</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>20.827853703164504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3">
-        <v>400</v>
-      </c>
-      <c r="B12">
-        <v>0.128</v>
-      </c>
-      <c r="C12">
-        <v>2.0619999999999998</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>16.109375</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>24.141573825992587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
-        <v>600</v>
-      </c>
-      <c r="B13">
-        <v>0.125</v>
-      </c>
-      <c r="C13">
-        <v>2.7810000000000001</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>22.248000000000001</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>26.945819517122061</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3">
-        <v>700</v>
-      </c>
-      <c r="B14">
-        <v>0.125</v>
-      </c>
-      <c r="C14">
-        <v>2.9060000000000001</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>23.248000000000001</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>27.327711939078924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3">
-        <v>800</v>
-      </c>
-      <c r="B15">
-        <v>0.125</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>27.60422483423212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
-        <v>900</v>
-      </c>
-      <c r="B16">
-        <v>0.125</v>
-      </c>
-      <c r="C16">
-        <v>3.0310000000000001</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>24.248000000000001</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>27.693518467191318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="B17">
-        <v>0.125</v>
-      </c>
-      <c r="C17">
-        <v>2.125</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>24.608978427565479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3">
-        <v>3000</v>
-      </c>
-      <c r="B18">
-        <v>0.125</v>
-      </c>
-      <c r="C18">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>9.7520000000000007</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>19.781873852206509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3">
-        <v>4000</v>
-      </c>
-      <c r="B19">
-        <v>0.125</v>
-      </c>
-      <c r="C19">
-        <v>0.78120000000000001</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>6.2496</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>15.917044432155208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3">
-        <v>6000</v>
-      </c>
-      <c r="B20">
-        <v>0.375</v>
-      </c>
-      <c r="C20">
-        <v>0.95309999999999995</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>2.5415999999999999</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>8.1021440363818193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
-        <v>7000</v>
-      </c>
-      <c r="B21">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="C21">
-        <v>2.125</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1.7432321575061525</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>4.8271045753589679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3">
-        <v>8000</v>
-      </c>
-      <c r="B22">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="C22">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1.3076292042657915</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>2.3296922288342317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3">
-        <v>9000</v>
-      </c>
-      <c r="B23">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="C23">
-        <v>1.25</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>1.0254306808859721</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>0.21812614779348982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3">
-        <v>150</v>
-      </c>
-      <c r="B24">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="C24">
-        <v>3.6880000000000002</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>3.0254306808859721</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>9.6157441352641957</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1186,40 +1424,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>